--- a/Plan/TechTreeData.xlsx
+++ b/Plan/TechTreeData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B14B14-29E0-4C88-9335-D50B540977FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="13770" windowHeight="12570"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,6 +131,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -177,7 +181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,9 +214,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,6 +266,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,11 +458,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -652,7 +690,7 @@
     </row>
     <row r="12" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -716,7 +754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -729,7 +767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Plan/TechTreeData.xlsx
+++ b/Plan/TechTreeData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B14B14-29E0-4C88-9335-D50B540977FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,26 +213,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,23 +248,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,11 +423,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -559,10 +524,10 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -579,10 +544,10 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -599,10 +564,10 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -619,10 +584,10 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -639,10 +604,10 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -659,10 +624,10 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -679,10 +644,10 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -699,10 +664,10 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
@@ -754,7 +719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -767,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Plan/TechTreeData.xlsx
+++ b/Plan/TechTreeData.xlsx
@@ -15,8 +15,34 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>만든 이</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Warhead,
+Engine,
+Material</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>ResearchType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +98,10 @@
   </si>
   <si>
     <t>0,1,2,3,4,5,6,7,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +123,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -423,11 +460,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -673,7 +710,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="14" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -715,6 +756,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Plan/TechTreeData.xlsx
+++ b/Plan/TechTreeData.xlsx
@@ -66,42 +66,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Warhead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6,7,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>resarchThingIdx</t>
-  </si>
-  <si>
-    <t>Warhead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,2,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,2,3,4,5,6,7,8,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Engine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +465,7 @@
   <dimension ref="B1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -547,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -587,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -627,7 +628,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -647,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -667,12 +668,12 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -687,7 +688,7 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -707,12 +708,12 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Plan/TechTreeData.xlsx
+++ b/Plan/TechTreeData.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>ResearchType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,39 +70,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,2,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,2,3,4,5,6,7,8,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Engine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>resarchThingIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>researchInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적인 탄두 연구.</t>
+  </si>
+  <si>
+    <t>방사형 탄두 1단계</t>
+  </si>
+  <si>
+    <t>방사형 탄두 2단계</t>
+  </si>
+  <si>
+    <t>지속형 탄두 1단계</t>
+  </si>
+  <si>
+    <t>지속형 탄두 2단계</t>
+  </si>
+  <si>
+    <t>고화력 탄두 1단계</t>
+  </si>
+  <si>
+    <t>고화력 탄두 2단계</t>
+  </si>
+  <si>
+    <t>방사형 지속 탄두</t>
+  </si>
+  <si>
+    <t>방사형 고화력 탄두</t>
+  </si>
+  <si>
+    <t>방사 집중형 탄두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불지옥 탄두</t>
+  </si>
+  <si>
+    <t>더 효율적인 연료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 효율적인 엔진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 효율적인 엔진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11, 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16, 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔진 1단계 연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔진 2단계 연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔진 3단계 연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔진 4단계 연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23, 25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -478,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -492,6 +566,9 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -509,7 +586,9 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -530,6 +609,9 @@
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -547,8 +629,11 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
-        <v>7</v>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -570,6 +655,9 @@
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -587,8 +675,11 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6" t="s">
-        <v>8</v>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -610,6 +701,9 @@
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -627,8 +721,11 @@
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" t="s">
-        <v>9</v>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -647,8 +744,11 @@
       <c r="F9">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
-        <v>10</v>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -668,7 +768,10 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -688,7 +791,10 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -708,33 +814,378 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>-1</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>-1</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>23</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>-1</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Plan/TechTreeData.xlsx
+++ b/Plan/TechTreeData.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>ResearchType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,74 @@
   </si>
   <si>
     <t>2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합성 재질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무게 경량화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warhead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27, 28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무게 경량화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합성 재질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33,34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초적 날개형 선체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초경량 날개형 선체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무게 경량화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전된 날개형 선체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warhead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -572,7 +640,7 @@
     </row>
     <row r="2" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -592,7 +660,7 @@
     </row>
     <row r="3" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1182,26 +1250,218 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>-1</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>-1</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>-1</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>-1</v>
+      </c>
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>-1</v>
+      </c>
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>30</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36">
+        <v>-1</v>
+      </c>
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>31</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
